--- a/dataset/emission.xlsx
+++ b/dataset/emission.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E77481B-373E-47EF-82E4-3774E786D2A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8E2D1F-FBA5-4F94-AD60-3B2A4DA3371A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,31 +22,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t xml:space="preserve">窗墙比 </t>
+    <t>窗墙比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">外窗传热系数 </t>
+    <t>外窗传热系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">外墙传热系数 </t>
+    <t>外墙传热系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">屋顶传热系数 </t>
+    <t>屋顶传热系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">采暖设置温度 </t>
+    <t>采暖设置温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>制冷设置温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>能耗（MWh）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>热舒适（绝对值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加能耗碳排放(吨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -423,7 +432,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
